--- a/backend/dataset/prediksiJumData.xlsx
+++ b/backend/dataset/prediksiJumData.xlsx
@@ -481,18 +481,18 @@
         <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>139.14</v>
+        <v>3000.023546536796</v>
       </c>
       <c r="E2" t="n">
         <v>8</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4,384</t>
+          <t>4,008</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>31.32559101998379</v>
+        <v>176.6075955371356</v>
       </c>
     </row>
     <row r="3">
@@ -506,18 +506,18 @@
         <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>4868.97</v>
+        <v>3833.825467426761</v>
       </c>
       <c r="E3" t="n">
         <v>461</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4,384</t>
+          <t>4,008</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>31.32559101998379</v>
+        <v>176.6075955371356</v>
       </c>
     </row>
     <row r="4">
@@ -531,18 +531,18 @@
         <v>5</v>
       </c>
       <c r="D4" t="n">
-        <v>133.89</v>
+        <v>2629.270495154243</v>
       </c>
       <c r="E4" t="n">
         <v>20</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4,384</t>
+          <t>4,008</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>31.32559101998379</v>
+        <v>176.6075955371356</v>
       </c>
     </row>
     <row r="5">
@@ -556,18 +556,18 @@
         <v>7</v>
       </c>
       <c r="D5" t="n">
-        <v>10.1</v>
+        <v>2723.228404115073</v>
       </c>
       <c r="E5" t="n">
         <v>7</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4,384</t>
+          <t>4,008</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>31.32559101998379</v>
+        <v>176.6075955371356</v>
       </c>
     </row>
     <row r="6">
@@ -581,18 +581,18 @@
         <v>8</v>
       </c>
       <c r="D6" t="n">
-        <v>1896.76</v>
+        <v>3250.576077861466</v>
       </c>
       <c r="E6" t="n">
         <v>1773</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>4,384</t>
+          <t>4,008</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>31.32559101998379</v>
+        <v>176.6075955371356</v>
       </c>
     </row>
     <row r="7">
@@ -606,18 +606,18 @@
         <v>9</v>
       </c>
       <c r="D7" t="n">
-        <v>13349.52</v>
+        <v>11603.895</v>
       </c>
       <c r="E7" t="n">
         <v>14689</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>4,384</t>
+          <t>4,008</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>31.32559101998379</v>
+        <v>176.6075955371356</v>
       </c>
     </row>
     <row r="8">
@@ -631,18 +631,18 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>50.26</v>
+        <v>892.8134523809525</v>
       </c>
       <c r="E8" t="n">
         <v>34</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>4,384</t>
+          <t>4,008</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>31.32559101998379</v>
+        <v>176.6075955371356</v>
       </c>
     </row>
     <row r="9">
@@ -656,18 +656,18 @@
         <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>3747</v>
+        <v>3267.731619047619</v>
       </c>
       <c r="E9" t="n">
         <v>4417</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>4,384</t>
+          <t>4,008</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>31.32559101998379</v>
+        <v>176.6075955371356</v>
       </c>
     </row>
     <row r="10">
@@ -681,18 +681,18 @@
         <v>2</v>
       </c>
       <c r="D10" t="n">
-        <v>7459.91</v>
+        <v>5842.167878472223</v>
       </c>
       <c r="E10" t="n">
         <v>13697</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>4,384</t>
+          <t>4,008</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>31.32559101998379</v>
+        <v>176.6075955371356</v>
       </c>
     </row>
     <row r="11">
@@ -706,18 +706,18 @@
         <v>3</v>
       </c>
       <c r="D11" t="n">
-        <v>127.97</v>
+        <v>2679.551842452083</v>
       </c>
       <c r="E11" t="n">
         <v>50</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>4,384</t>
+          <t>4,008</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>31.32559101998379</v>
+        <v>176.6075955371356</v>
       </c>
     </row>
     <row r="12">
@@ -731,18 +731,18 @@
         <v>4</v>
       </c>
       <c r="D12" t="n">
-        <v>5209.29</v>
+        <v>3879.029808526032</v>
       </c>
       <c r="E12" t="n">
         <v>1569</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>4,384</t>
+          <t>4,008</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>31.32559101998379</v>
+        <v>176.6075955371356</v>
       </c>
     </row>
     <row r="13">
@@ -756,18 +756,18 @@
         <v>5</v>
       </c>
       <c r="D13" t="n">
-        <v>184.87</v>
+        <v>2503.31477979608</v>
       </c>
       <c r="E13" t="n">
         <v>60</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>4,384</t>
+          <t>4,008</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>31.32559101998379</v>
+        <v>176.6075955371356</v>
       </c>
     </row>
     <row r="14">
@@ -781,18 +781,18 @@
         <v>6</v>
       </c>
       <c r="D14" t="n">
-        <v>25.06</v>
+        <v>2280.978203001347</v>
       </c>
       <c r="E14" t="n">
         <v>2</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>4,384</t>
+          <t>4,008</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>31.32559101998379</v>
+        <v>176.6075955371356</v>
       </c>
     </row>
     <row r="15">
@@ -806,18 +806,18 @@
         <v>7</v>
       </c>
       <c r="D15" t="n">
-        <v>10.44</v>
+        <v>2478.648660934039</v>
       </c>
       <c r="E15" t="n">
         <v>12</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>4,384</t>
+          <t>4,008</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>31.32559101998379</v>
+        <v>176.6075955371356</v>
       </c>
     </row>
     <row r="16">
@@ -831,18 +831,18 @@
         <v>8</v>
       </c>
       <c r="D16" t="n">
-        <v>1935.08</v>
+        <v>3165.224347577258</v>
       </c>
       <c r="E16" t="n">
         <v>2237</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>4,384</t>
+          <t>4,008</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>31.32559101998379</v>
+        <v>176.6075955371356</v>
       </c>
     </row>
     <row r="17">
@@ -856,18 +856,18 @@
         <v>9</v>
       </c>
       <c r="D17" t="n">
-        <v>13696.69</v>
+        <v>12176.2575</v>
       </c>
       <c r="E17" t="n">
         <v>17319</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>4,384</t>
+          <t>4,008</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>31.32559101998379</v>
+        <v>176.6075955371356</v>
       </c>
     </row>
     <row r="18">
@@ -881,18 +881,18 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>50.92</v>
+        <v>1369.495833333333</v>
       </c>
       <c r="E18" t="n">
         <v>52</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>4,384</t>
+          <t>4,008</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>31.32559101998379</v>
+        <v>176.6075955371356</v>
       </c>
     </row>
     <row r="19">
@@ -906,18 +906,18 @@
         <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>6485.37</v>
+        <v>5135.702351641414</v>
       </c>
       <c r="E19" t="n">
         <v>4498</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>4,384</t>
+          <t>4,008</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>31.32559101998379</v>
+        <v>176.6075955371356</v>
       </c>
     </row>
     <row r="20">
@@ -931,18 +931,18 @@
         <v>2</v>
       </c>
       <c r="D20" t="n">
-        <v>10717.04</v>
+        <v>9339.517997474748</v>
       </c>
       <c r="E20" t="n">
         <v>14113</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>4,384</t>
+          <t>4,008</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>31.32559101998379</v>
+        <v>176.6075955371356</v>
       </c>
     </row>
     <row r="21">
@@ -956,18 +956,18 @@
         <v>3</v>
       </c>
       <c r="D21" t="n">
-        <v>120.05</v>
+        <v>2704.298625235273</v>
       </c>
       <c r="E21" t="n">
         <v>83</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>4,384</t>
+          <t>4,008</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>31.32559101998379</v>
+        <v>176.6075955371356</v>
       </c>
     </row>
     <row r="22">
@@ -981,18 +981,18 @@
         <v>4</v>
       </c>
       <c r="D22" t="n">
-        <v>3344.99</v>
+        <v>2864.751056854091</v>
       </c>
       <c r="E22" t="n">
         <v>6183</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>4,384</t>
+          <t>4,008</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>31.32559101998379</v>
+        <v>176.6075955371356</v>
       </c>
     </row>
     <row r="23">
@@ -1006,18 +1006,18 @@
         <v>5</v>
       </c>
       <c r="D23" t="n">
-        <v>302.73</v>
+        <v>2214.938532340411</v>
       </c>
       <c r="E23" t="n">
         <v>300</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>4,384</t>
+          <t>4,008</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>31.32559101998379</v>
+        <v>176.6075955371356</v>
       </c>
     </row>
     <row r="24">
@@ -1031,18 +1031,18 @@
         <v>6</v>
       </c>
       <c r="D24" t="n">
-        <v>31.83</v>
+        <v>1743.969241259964</v>
       </c>
       <c r="E24" t="n">
         <v>1</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>4,384</t>
+          <t>4,008</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>31.32559101998379</v>
+        <v>176.6075955371356</v>
       </c>
     </row>
     <row r="25">
@@ -1056,18 +1056,18 @@
         <v>7</v>
       </c>
       <c r="D25" t="n">
-        <v>10.63</v>
+        <v>1969.099141900989</v>
       </c>
       <c r="E25" t="n">
         <v>14</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>4,384</t>
+          <t>4,008</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>31.32559101998379</v>
+        <v>176.6075955371356</v>
       </c>
     </row>
     <row r="26">
@@ -1081,18 +1081,18 @@
         <v>8</v>
       </c>
       <c r="D26" t="n">
-        <v>2795.83</v>
+        <v>3269.412234031082</v>
       </c>
       <c r="E26" t="n">
         <v>3277</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>4,384</t>
+          <t>4,008</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>31.32559101998379</v>
+        <v>176.6075955371356</v>
       </c>
     </row>
     <row r="27">
@@ -1106,18 +1106,18 @@
         <v>9</v>
       </c>
       <c r="D27" t="n">
-        <v>27552.69</v>
+        <v>22244.1225</v>
       </c>
       <c r="E27" t="n">
         <v>32447</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>4,384</t>
+          <t>4,008</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>31.32559101998379</v>
+        <v>176.6075955371356</v>
       </c>
     </row>
     <row r="28">
@@ -1131,18 +1131,18 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>51.67</v>
+        <v>731.0533333333333</v>
       </c>
       <c r="E28" t="n">
         <v>54</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>4,384</t>
+          <t>4,008</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>31.32559101998379</v>
+        <v>176.6075955371356</v>
       </c>
     </row>
     <row r="29">
@@ -1156,18 +1156,18 @@
         <v>1</v>
       </c>
       <c r="D29" t="n">
-        <v>3846.26</v>
+        <v>3197.519002705627</v>
       </c>
       <c r="E29" t="n">
         <v>2610</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>4,384</t>
+          <t>4,008</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>31.32559101998379</v>
+        <v>176.6075955371356</v>
       </c>
     </row>
     <row r="30">
@@ -1181,18 +1181,18 @@
         <v>2</v>
       </c>
       <c r="D30" t="n">
-        <v>6628.45</v>
+        <v>5407.683376217534</v>
       </c>
       <c r="E30" t="n">
         <v>7539</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>4,384</t>
+          <t>4,008</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>31.32559101998379</v>
+        <v>176.6075955371356</v>
       </c>
     </row>
     <row r="31">
@@ -1206,18 +1206,18 @@
         <v>3</v>
       </c>
       <c r="D31" t="n">
-        <v>124.38</v>
+        <v>1990.620182278923</v>
       </c>
       <c r="E31" t="n">
         <v>33</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>4,384</t>
+          <t>4,008</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>31.32559101998379</v>
+        <v>176.6075955371356</v>
       </c>
     </row>
     <row r="32">
@@ -1231,18 +1231,18 @@
         <v>4</v>
       </c>
       <c r="D32" t="n">
-        <v>2282.01</v>
+        <v>2364.547066049757</v>
       </c>
       <c r="E32" t="n">
         <v>1230</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>4,384</t>
+          <t>4,008</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>31.32559101998379</v>
+        <v>176.6075955371356</v>
       </c>
     </row>
     <row r="33">
@@ -1256,18 +1256,18 @@
         <v>5</v>
       </c>
       <c r="D33" t="n">
-        <v>1434.12</v>
+        <v>2776.328608590551</v>
       </c>
       <c r="E33" t="n">
         <v>2535</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>4,384</t>
+          <t>4,008</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>31.32559101998379</v>
+        <v>176.6075955371356</v>
       </c>
     </row>
     <row r="34">
@@ -1281,18 +1281,18 @@
         <v>6</v>
       </c>
       <c r="D34" t="n">
-        <v>485.31</v>
+        <v>2383.861103224388</v>
       </c>
       <c r="E34" t="n">
         <v>1</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>4,384</t>
+          <t>4,008</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>31.32559101998379</v>
+        <v>176.6075955371356</v>
       </c>
     </row>
     <row r="35">
@@ -1306,18 +1306,18 @@
         <v>7</v>
       </c>
       <c r="D35" t="n">
-        <v>423.99</v>
+        <v>2331.575858032081</v>
       </c>
       <c r="E35" t="n">
         <v>13</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>4,384</t>
+          <t>4,008</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>31.32559101998379</v>
+        <v>176.6075955371356</v>
       </c>
     </row>
     <row r="36">
@@ -1331,18 +1331,18 @@
         <v>8</v>
       </c>
       <c r="D36" t="n">
-        <v>2025.04</v>
+        <v>2894.976894516431</v>
       </c>
       <c r="E36" t="n">
         <v>1734</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>4,384</t>
+          <t>4,008</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>31.32559101998379</v>
+        <v>176.6075955371356</v>
       </c>
     </row>
     <row r="37">
@@ -1356,18 +1356,18 @@
         <v>9</v>
       </c>
       <c r="D37" t="n">
-        <v>21751.27</v>
+        <v>15079.4975</v>
       </c>
       <c r="E37" t="n">
         <v>9422</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>4,384</t>
+          <t>4,008</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>31.32559101998379</v>
+        <v>176.6075955371356</v>
       </c>
     </row>
     <row r="38">
@@ -1381,18 +1381,18 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>102.66</v>
+        <v>772.00109375</v>
       </c>
       <c r="E38" t="n">
         <v>14</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>4,384</t>
+          <t>4,008</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>31.32559101998379</v>
+        <v>176.6075955371356</v>
       </c>
     </row>
     <row r="39">
@@ -1406,18 +1406,18 @@
         <v>1</v>
       </c>
       <c r="D39" t="n">
-        <v>3546.93</v>
+        <v>3204.009345508657</v>
       </c>
       <c r="E39" t="n">
         <v>1226</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>4,384</t>
+          <t>4,008</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>31.32559101998379</v>
+        <v>176.6075955371356</v>
       </c>
     </row>
     <row r="40">
@@ -1431,18 +1431,18 @@
         <v>2</v>
       </c>
       <c r="D40" t="n">
-        <v>5783.25</v>
+        <v>5035.130507711038</v>
       </c>
       <c r="E40" t="n">
         <v>1148</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>4,384</t>
+          <t>4,008</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>31.32559101998379</v>
+        <v>176.6075955371356</v>
       </c>
     </row>
     <row r="41">
@@ -1456,18 +1456,18 @@
         <v>3</v>
       </c>
       <c r="D41" t="n">
-        <v>96.90000000000001</v>
+        <v>2084.954759704969</v>
       </c>
       <c r="E41" t="n">
         <v>61</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>4,384</t>
+          <t>4,008</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>31.32559101998379</v>
+        <v>176.6075955371356</v>
       </c>
     </row>
     <row r="42">
@@ -1481,18 +1481,18 @@
         <v>4</v>
       </c>
       <c r="D42" t="n">
-        <v>4542.12</v>
+        <v>3027.369238736355</v>
       </c>
       <c r="E42" t="n">
         <v>114</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>4,384</t>
+          <t>4,008</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>31.32559101998379</v>
+        <v>176.6075955371356</v>
       </c>
     </row>
     <row r="43">
@@ -1506,18 +1506,18 @@
         <v>5</v>
       </c>
       <c r="D43" t="n">
-        <v>18386.68</v>
+        <v>11083.05201849826</v>
       </c>
       <c r="E43" t="n">
         <v>2025</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>4,384</t>
+          <t>4,008</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>31.32559101998379</v>
+        <v>176.6075955371356</v>
       </c>
     </row>
     <row r="44">
@@ -1531,18 +1531,18 @@
         <v>8</v>
       </c>
       <c r="D44" t="n">
-        <v>4942.78</v>
+        <v>4186.696189764492</v>
       </c>
       <c r="E44" t="n">
         <v>224</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>4,384</t>
+          <t>4,008</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>31.32559101998379</v>
+        <v>176.6075955371356</v>
       </c>
     </row>
     <row r="45">
@@ -1556,18 +1556,18 @@
         <v>9</v>
       </c>
       <c r="D45" t="n">
-        <v>11924.76</v>
+        <v>11140.23875</v>
       </c>
       <c r="E45" t="n">
         <v>4376</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>4,384</t>
+          <t>4,008</t>
         </is>
       </c>
       <c r="G45" t="n">
-        <v>31.32559101998379</v>
+        <v>176.6075955371356</v>
       </c>
     </row>
     <row r="46">
@@ -1581,18 +1581,18 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>43.01</v>
+        <v>739.6146279761905</v>
       </c>
       <c r="E46" t="n">
         <v>8</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>4,384</t>
+          <t>4,008</t>
         </is>
       </c>
       <c r="G46" t="n">
-        <v>31.32559101998379</v>
+        <v>176.6075955371356</v>
       </c>
     </row>
     <row r="47">
@@ -1606,18 +1606,18 @@
         <v>1</v>
       </c>
       <c r="D47" t="n">
-        <v>3701.94</v>
+        <v>3142.735052353896</v>
       </c>
       <c r="E47" t="n">
         <v>781</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>4,384</t>
+          <t>4,008</t>
         </is>
       </c>
       <c r="G47" t="n">
-        <v>31.32559101998379</v>
+        <v>176.6075955371356</v>
       </c>
     </row>
     <row r="48">
@@ -1631,18 +1631,18 @@
         <v>2</v>
       </c>
       <c r="D48" t="n">
-        <v>5962.34</v>
+        <v>4939.316119318181</v>
       </c>
       <c r="E48" t="n">
         <v>326</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>4,384</t>
+          <t>4,008</t>
         </is>
       </c>
       <c r="G48" t="n">
-        <v>31.32559101998379</v>
+        <v>176.6075955371356</v>
       </c>
     </row>
     <row r="49">
@@ -1656,18 +1656,18 @@
         <v>3</v>
       </c>
       <c r="D49" t="n">
-        <v>24.81</v>
+        <v>1741.975353951002</v>
       </c>
       <c r="E49" t="n">
         <v>5</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>4,384</t>
+          <t>4,008</t>
         </is>
       </c>
       <c r="G49" t="n">
-        <v>31.32559101998379</v>
+        <v>176.6075955371356</v>
       </c>
     </row>
     <row r="50">
@@ -1681,18 +1681,18 @@
         <v>4</v>
       </c>
       <c r="D50" t="n">
-        <v>937.0700000000001</v>
+        <v>1991.837997619833</v>
       </c>
       <c r="E50" t="n">
         <v>37</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>4,384</t>
+          <t>4,008</t>
         </is>
       </c>
       <c r="G50" t="n">
-        <v>31.32559101998379</v>
+        <v>176.6075955371356</v>
       </c>
     </row>
     <row r="51">
@@ -1706,18 +1706,18 @@
         <v>5</v>
       </c>
       <c r="D51" t="n">
-        <v>5204.08</v>
+        <v>3106.107963393641</v>
       </c>
       <c r="E51" t="n">
         <v>4</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>4,384</t>
+          <t>4,008</t>
         </is>
       </c>
       <c r="G51" t="n">
-        <v>31.32559101998379</v>
+        <v>176.6075955371356</v>
       </c>
     </row>
     <row r="52">
@@ -1731,18 +1731,18 @@
         <v>8</v>
       </c>
       <c r="D52" t="n">
-        <v>1672.24</v>
+        <v>2555.802383216875</v>
       </c>
       <c r="E52" t="n">
         <v>48</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>4,384</t>
+          <t>4,008</t>
         </is>
       </c>
       <c r="G52" t="n">
-        <v>31.32559101998379</v>
+        <v>176.6075955371356</v>
       </c>
     </row>
     <row r="53">
@@ -1756,18 +1756,18 @@
         <v>9</v>
       </c>
       <c r="D53" t="n">
-        <v>11889.24</v>
+        <v>11094.54083333333</v>
       </c>
       <c r="E53" t="n">
         <v>1007</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>4,384</t>
+          <t>4,008</t>
         </is>
       </c>
       <c r="G53" t="n">
-        <v>31.32559101998379</v>
+        <v>176.6075955371356</v>
       </c>
     </row>
     <row r="54">
@@ -1781,18 +1781,18 @@
         <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>37.88</v>
+        <v>714.1615386904762</v>
       </c>
       <c r="E54" t="n">
         <v>5</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>4,384</t>
+          <t>4,008</t>
         </is>
       </c>
       <c r="G54" t="n">
-        <v>31.32559101998379</v>
+        <v>176.6075955371356</v>
       </c>
     </row>
     <row r="55">
@@ -1806,18 +1806,18 @@
         <v>1</v>
       </c>
       <c r="D55" t="n">
-        <v>3573.52</v>
+        <v>3210.920162472944</v>
       </c>
       <c r="E55" t="n">
         <v>737</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>4,384</t>
+          <t>4,008</t>
         </is>
       </c>
       <c r="G55" t="n">
-        <v>31.32559101998379</v>
+        <v>176.6075955371356</v>
       </c>
     </row>
     <row r="56">
@@ -1831,18 +1831,18 @@
         <v>2</v>
       </c>
       <c r="D56" t="n">
-        <v>6283.77</v>
+        <v>5245.138117334056</v>
       </c>
       <c r="E56" t="n">
         <v>384</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>4,384</t>
+          <t>4,008</t>
         </is>
       </c>
       <c r="G56" t="n">
-        <v>31.32559101998379</v>
+        <v>176.6075955371356</v>
       </c>
     </row>
     <row r="57">
@@ -1856,18 +1856,18 @@
         <v>3</v>
       </c>
       <c r="D57" t="n">
-        <v>11.4</v>
+        <v>1585.887835407649</v>
       </c>
       <c r="E57" t="n">
         <v>9</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>4,384</t>
+          <t>4,008</t>
         </is>
       </c>
       <c r="G57" t="n">
-        <v>31.32559101998379</v>
+        <v>176.6075955371356</v>
       </c>
     </row>
     <row r="58">
@@ -1881,18 +1881,18 @@
         <v>4</v>
       </c>
       <c r="D58" t="n">
-        <v>1078.8</v>
+        <v>1807.349018759021</v>
       </c>
       <c r="E58" t="n">
         <v>30</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>4,384</t>
+          <t>4,008</t>
         </is>
       </c>
       <c r="G58" t="n">
-        <v>31.32559101998379</v>
+        <v>176.6075955371356</v>
       </c>
     </row>
     <row r="59">
@@ -1906,18 +1906,18 @@
         <v>5</v>
       </c>
       <c r="D59" t="n">
-        <v>60.42</v>
+        <v>1405.38919295635</v>
       </c>
       <c r="E59" t="n">
         <v>1</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>4,384</t>
+          <t>4,008</t>
         </is>
       </c>
       <c r="G59" t="n">
-        <v>31.32559101998379</v>
+        <v>176.6075955371356</v>
       </c>
     </row>
     <row r="60">
@@ -1931,18 +1931,18 @@
         <v>8</v>
       </c>
       <c r="D60" t="n">
-        <v>1644.01</v>
+        <v>2423.879275974026</v>
       </c>
       <c r="E60" t="n">
         <v>36</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>4,384</t>
+          <t>4,008</t>
         </is>
       </c>
       <c r="G60" t="n">
-        <v>31.32559101998379</v>
+        <v>176.6075955371356</v>
       </c>
     </row>
     <row r="61">
@@ -1956,18 +1956,18 @@
         <v>9</v>
       </c>
       <c r="D61" t="n">
-        <v>11995.53</v>
+        <v>11108.05</v>
       </c>
       <c r="E61" t="n">
         <v>1018</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>4,384</t>
+          <t>4,008</t>
         </is>
       </c>
       <c r="G61" t="n">
-        <v>31.32559101998379</v>
+        <v>176.6075955371356</v>
       </c>
     </row>
     <row r="62">
@@ -1981,18 +1981,18 @@
         <v>0</v>
       </c>
       <c r="D62" t="n">
-        <v>41.48</v>
+        <v>788.4009910714286</v>
       </c>
       <c r="E62" t="n">
         <v>9</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>4,384</t>
+          <t>4,008</t>
         </is>
       </c>
       <c r="G62" t="n">
-        <v>31.32559101998379</v>
+        <v>176.6075955371356</v>
       </c>
     </row>
     <row r="63">
@@ -2006,18 +2006,18 @@
         <v>1</v>
       </c>
       <c r="D63" t="n">
-        <v>3602.07</v>
+        <v>3237.499628742784</v>
       </c>
       <c r="E63" t="n">
         <v>845</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>4,384</t>
+          <t>4,008</t>
         </is>
       </c>
       <c r="G63" t="n">
-        <v>31.32559101998379</v>
+        <v>176.6075955371356</v>
       </c>
     </row>
     <row r="64">
@@ -2031,18 +2031,18 @@
         <v>2</v>
       </c>
       <c r="D64" t="n">
-        <v>6526.31</v>
+        <v>5516.796875270565</v>
       </c>
       <c r="E64" t="n">
         <v>461</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>4,384</t>
+          <t>4,008</t>
         </is>
       </c>
       <c r="G64" t="n">
-        <v>31.32559101998379</v>
+        <v>176.6075955371356</v>
       </c>
     </row>
     <row r="65">
@@ -2056,18 +2056,18 @@
         <v>3</v>
       </c>
       <c r="D65" t="n">
-        <v>9.85</v>
+        <v>1557.046926216145</v>
       </c>
       <c r="E65" t="n">
         <v>12</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>4,384</t>
+          <t>4,008</t>
         </is>
       </c>
       <c r="G65" t="n">
-        <v>31.32559101998379</v>
+        <v>176.6075955371356</v>
       </c>
     </row>
     <row r="66">
@@ -2081,18 +2081,18 @@
         <v>4</v>
       </c>
       <c r="D66" t="n">
-        <v>1080.47</v>
+        <v>1758.996068441975</v>
       </c>
       <c r="E66" t="n">
         <v>11</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>4,384</t>
+          <t>4,008</t>
         </is>
       </c>
       <c r="G66" t="n">
-        <v>31.32559101998379</v>
+        <v>176.6075955371356</v>
       </c>
     </row>
     <row r="67">
@@ -2106,18 +2106,18 @@
         <v>8</v>
       </c>
       <c r="D67" t="n">
-        <v>1650.67</v>
+        <v>2307.17250743007</v>
       </c>
       <c r="E67" t="n">
         <v>126</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>4,384</t>
+          <t>4,008</t>
         </is>
       </c>
       <c r="G67" t="n">
-        <v>31.32559101998379</v>
+        <v>176.6075955371356</v>
       </c>
     </row>
     <row r="68">
@@ -2131,18 +2131,18 @@
         <v>9</v>
       </c>
       <c r="D68" t="n">
-        <v>12324.12</v>
+        <v>11460.75825</v>
       </c>
       <c r="E68" t="n">
         <v>915</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>4,384</t>
+          <t>4,008</t>
         </is>
       </c>
       <c r="G68" t="n">
-        <v>31.32559101998379</v>
+        <v>176.6075955371356</v>
       </c>
     </row>
     <row r="69">
@@ -2156,18 +2156,18 @@
         <v>0</v>
       </c>
       <c r="D69" t="n">
-        <v>45.88</v>
+        <v>853.4270833333333</v>
       </c>
       <c r="E69" t="n">
         <v>9</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>4,384</t>
+          <t>4,008</t>
         </is>
       </c>
       <c r="G69" t="n">
-        <v>31.32559101998379</v>
+        <v>176.6075955371356</v>
       </c>
     </row>
     <row r="70">
@@ -2181,18 +2181,18 @@
         <v>1</v>
       </c>
       <c r="D70" t="n">
-        <v>3595.53</v>
+        <v>3230.810478445165</v>
       </c>
       <c r="E70" t="n">
         <v>721</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>4,384</t>
+          <t>4,008</t>
         </is>
       </c>
       <c r="G70" t="n">
-        <v>31.32559101998379</v>
+        <v>176.6075955371356</v>
       </c>
     </row>
     <row r="71">
@@ -2206,18 +2206,18 @@
         <v>2</v>
       </c>
       <c r="D71" t="n">
-        <v>6669.51</v>
+        <v>5661.461964556278</v>
       </c>
       <c r="E71" t="n">
         <v>482</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>4,384</t>
+          <t>4,008</t>
         </is>
       </c>
       <c r="G71" t="n">
-        <v>31.32559101998379</v>
+        <v>176.6075955371356</v>
       </c>
     </row>
     <row r="72">
@@ -2231,18 +2231,18 @@
         <v>3</v>
       </c>
       <c r="D72" t="n">
-        <v>16.48</v>
+        <v>1642.445270833334</v>
       </c>
       <c r="E72" t="n">
         <v>15</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>4,384</t>
+          <t>4,008</t>
         </is>
       </c>
       <c r="G72" t="n">
-        <v>31.32559101998379</v>
+        <v>176.6075955371356</v>
       </c>
     </row>
     <row r="73">
@@ -2256,18 +2256,18 @@
         <v>4</v>
       </c>
       <c r="D73" t="n">
-        <v>964.34</v>
+        <v>1740.397955402237</v>
       </c>
       <c r="E73" t="n">
         <v>51</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>4,384</t>
+          <t>4,008</t>
         </is>
       </c>
       <c r="G73" t="n">
-        <v>31.32559101998379</v>
+        <v>176.6075955371356</v>
       </c>
     </row>
     <row r="74">
@@ -2281,18 +2281,18 @@
         <v>5</v>
       </c>
       <c r="D74" t="n">
-        <v>17.12</v>
+        <v>1187.988169642857</v>
       </c>
       <c r="E74" t="n">
         <v>2</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>4,384</t>
+          <t>4,008</t>
         </is>
       </c>
       <c r="G74" t="n">
-        <v>31.32559101998379</v>
+        <v>176.6075955371356</v>
       </c>
     </row>
     <row r="75">
@@ -2306,18 +2306,18 @@
         <v>8</v>
       </c>
       <c r="D75" t="n">
-        <v>1700.53</v>
+        <v>2348.528919642857</v>
       </c>
       <c r="E75" t="n">
         <v>129</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>4,384</t>
+          <t>4,008</t>
         </is>
       </c>
       <c r="G75" t="n">
-        <v>31.32559101998379</v>
+        <v>176.6075955371356</v>
       </c>
     </row>
     <row r="76">
@@ -2331,18 +2331,18 @@
         <v>9</v>
       </c>
       <c r="D76" t="n">
-        <v>12930.73</v>
+        <v>12042.92125</v>
       </c>
       <c r="E76" t="n">
         <v>891</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>4,384</t>
+          <t>4,008</t>
         </is>
       </c>
       <c r="G76" t="n">
-        <v>31.32559101998379</v>
+        <v>176.6075955371356</v>
       </c>
     </row>
     <row r="77">
@@ -2356,18 +2356,18 @@
         <v>0</v>
       </c>
       <c r="D77" t="n">
-        <v>43.38</v>
+        <v>835.2491666666667</v>
       </c>
       <c r="E77" t="n">
         <v>16</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>4,384</t>
+          <t>4,008</t>
         </is>
       </c>
       <c r="G77" t="n">
-        <v>31.32559101998379</v>
+        <v>176.6075955371356</v>
       </c>
     </row>
     <row r="78">
@@ -2381,18 +2381,18 @@
         <v>1</v>
       </c>
       <c r="D78" t="n">
-        <v>3573.04</v>
+        <v>3068.890732638889</v>
       </c>
       <c r="E78" t="n">
         <v>821</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>4,384</t>
+          <t>4,008</t>
         </is>
       </c>
       <c r="G78" t="n">
-        <v>31.32559101998379</v>
+        <v>176.6075955371356</v>
       </c>
     </row>
     <row r="79">
@@ -2406,18 +2406,18 @@
         <v>2</v>
       </c>
       <c r="D79" t="n">
-        <v>6792.44</v>
+        <v>5675.217052083333</v>
       </c>
       <c r="E79" t="n">
         <v>343</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>4,384</t>
+          <t>4,008</t>
         </is>
       </c>
       <c r="G79" t="n">
-        <v>31.32559101998379</v>
+        <v>176.6075955371356</v>
       </c>
     </row>
     <row r="80">
@@ -2431,18 +2431,18 @@
         <v>3</v>
       </c>
       <c r="D80" t="n">
-        <v>33.12</v>
+        <v>1679.188422393579</v>
       </c>
       <c r="E80" t="n">
         <v>15</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>4,384</t>
+          <t>4,008</t>
         </is>
       </c>
       <c r="G80" t="n">
-        <v>31.32559101998379</v>
+        <v>176.6075955371356</v>
       </c>
     </row>
     <row r="81">
@@ -2456,18 +2456,18 @@
         <v>4</v>
       </c>
       <c r="D81" t="n">
-        <v>1077</v>
+        <v>1703.454403048341</v>
       </c>
       <c r="E81" t="n">
         <v>539</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>4,384</t>
+          <t>4,008</t>
         </is>
       </c>
       <c r="G81" t="n">
-        <v>31.32559101998379</v>
+        <v>176.6075955371356</v>
       </c>
     </row>
     <row r="82">
@@ -2481,18 +2481,18 @@
         <v>5</v>
       </c>
       <c r="D82" t="n">
-        <v>60.53</v>
+        <v>1233.655459325397</v>
       </c>
       <c r="E82" t="n">
         <v>1</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>4,384</t>
+          <t>4,008</t>
         </is>
       </c>
       <c r="G82" t="n">
-        <v>31.32559101998379</v>
+        <v>176.6075955371356</v>
       </c>
     </row>
     <row r="83">
@@ -2506,18 +2506,18 @@
         <v>7</v>
       </c>
       <c r="D83" t="n">
-        <v>30.08</v>
+        <v>1768.604963789682</v>
       </c>
       <c r="E83" t="n">
         <v>1</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>4,384</t>
+          <t>4,008</t>
         </is>
       </c>
       <c r="G83" t="n">
-        <v>31.32559101998379</v>
+        <v>176.6075955371356</v>
       </c>
     </row>
     <row r="84">
@@ -2531,18 +2531,18 @@
         <v>8</v>
       </c>
       <c r="D84" t="n">
-        <v>1696.06</v>
+        <v>2447.582598214286</v>
       </c>
       <c r="E84" t="n">
         <v>59</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>4,384</t>
+          <t>4,008</t>
         </is>
       </c>
       <c r="G84" t="n">
-        <v>31.32559101998379</v>
+        <v>176.6075955371356</v>
       </c>
     </row>
     <row r="85">
@@ -2556,18 +2556,18 @@
         <v>9</v>
       </c>
       <c r="D85" t="n">
-        <v>13202.19</v>
+        <v>12247.8175</v>
       </c>
       <c r="E85" t="n">
         <v>1053</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>4,384</t>
+          <t>4,008</t>
         </is>
       </c>
       <c r="G85" t="n">
-        <v>31.32559101998379</v>
+        <v>176.6075955371356</v>
       </c>
     </row>
   </sheetData>

--- a/backend/dataset/prediksiJumData.xlsx
+++ b/backend/dataset/prediksiJumData.xlsx
@@ -481,18 +481,18 @@
         <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>3000.023546536796</v>
+        <v>139.14</v>
       </c>
       <c r="E2" t="n">
         <v>8</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4,008</t>
+          <t>4,384</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>176.6075955371356</v>
+        <v>31.32559101998379</v>
       </c>
     </row>
     <row r="3">
@@ -506,18 +506,18 @@
         <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>3833.825467426761</v>
+        <v>4868.97</v>
       </c>
       <c r="E3" t="n">
         <v>461</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4,008</t>
+          <t>4,384</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>176.6075955371356</v>
+        <v>31.32559101998379</v>
       </c>
     </row>
     <row r="4">
@@ -531,18 +531,18 @@
         <v>5</v>
       </c>
       <c r="D4" t="n">
-        <v>2629.270495154243</v>
+        <v>133.89</v>
       </c>
       <c r="E4" t="n">
         <v>20</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4,008</t>
+          <t>4,384</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>176.6075955371356</v>
+        <v>31.32559101998379</v>
       </c>
     </row>
     <row r="5">
@@ -556,18 +556,18 @@
         <v>7</v>
       </c>
       <c r="D5" t="n">
-        <v>2723.228404115073</v>
+        <v>10.1</v>
       </c>
       <c r="E5" t="n">
         <v>7</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4,008</t>
+          <t>4,384</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>176.6075955371356</v>
+        <v>31.32559101998379</v>
       </c>
     </row>
     <row r="6">
@@ -581,18 +581,18 @@
         <v>8</v>
       </c>
       <c r="D6" t="n">
-        <v>3250.576077861466</v>
+        <v>1896.76</v>
       </c>
       <c r="E6" t="n">
         <v>1773</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>4,008</t>
+          <t>4,384</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>176.6075955371356</v>
+        <v>31.32559101998379</v>
       </c>
     </row>
     <row r="7">
@@ -606,18 +606,18 @@
         <v>9</v>
       </c>
       <c r="D7" t="n">
-        <v>11603.895</v>
+        <v>13349.52</v>
       </c>
       <c r="E7" t="n">
         <v>14689</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>4,008</t>
+          <t>4,384</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>176.6075955371356</v>
+        <v>31.32559101998379</v>
       </c>
     </row>
     <row r="8">
@@ -631,18 +631,18 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>892.8134523809525</v>
+        <v>50.26</v>
       </c>
       <c r="E8" t="n">
         <v>34</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>4,008</t>
+          <t>4,384</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>176.6075955371356</v>
+        <v>31.32559101998379</v>
       </c>
     </row>
     <row r="9">
@@ -656,18 +656,18 @@
         <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>3267.731619047619</v>
+        <v>3747</v>
       </c>
       <c r="E9" t="n">
         <v>4417</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>4,008</t>
+          <t>4,384</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>176.6075955371356</v>
+        <v>31.32559101998379</v>
       </c>
     </row>
     <row r="10">
@@ -681,18 +681,18 @@
         <v>2</v>
       </c>
       <c r="D10" t="n">
-        <v>5842.167878472223</v>
+        <v>7459.91</v>
       </c>
       <c r="E10" t="n">
         <v>13697</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>4,008</t>
+          <t>4,384</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>176.6075955371356</v>
+        <v>31.32559101998379</v>
       </c>
     </row>
     <row r="11">
@@ -706,18 +706,18 @@
         <v>3</v>
       </c>
       <c r="D11" t="n">
-        <v>2679.551842452083</v>
+        <v>127.97</v>
       </c>
       <c r="E11" t="n">
         <v>50</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>4,008</t>
+          <t>4,384</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>176.6075955371356</v>
+        <v>31.32559101998379</v>
       </c>
     </row>
     <row r="12">
@@ -731,18 +731,18 @@
         <v>4</v>
       </c>
       <c r="D12" t="n">
-        <v>3879.029808526032</v>
+        <v>5209.29</v>
       </c>
       <c r="E12" t="n">
         <v>1569</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>4,008</t>
+          <t>4,384</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>176.6075955371356</v>
+        <v>31.32559101998379</v>
       </c>
     </row>
     <row r="13">
@@ -756,18 +756,18 @@
         <v>5</v>
       </c>
       <c r="D13" t="n">
-        <v>2503.31477979608</v>
+        <v>184.87</v>
       </c>
       <c r="E13" t="n">
         <v>60</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>4,008</t>
+          <t>4,384</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>176.6075955371356</v>
+        <v>31.32559101998379</v>
       </c>
     </row>
     <row r="14">
@@ -781,18 +781,18 @@
         <v>6</v>
       </c>
       <c r="D14" t="n">
-        <v>2280.978203001347</v>
+        <v>25.06</v>
       </c>
       <c r="E14" t="n">
         <v>2</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>4,008</t>
+          <t>4,384</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>176.6075955371356</v>
+        <v>31.32559101998379</v>
       </c>
     </row>
     <row r="15">
@@ -806,18 +806,18 @@
         <v>7</v>
       </c>
       <c r="D15" t="n">
-        <v>2478.648660934039</v>
+        <v>10.44</v>
       </c>
       <c r="E15" t="n">
         <v>12</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>4,008</t>
+          <t>4,384</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>176.6075955371356</v>
+        <v>31.32559101998379</v>
       </c>
     </row>
     <row r="16">
@@ -831,18 +831,18 @@
         <v>8</v>
       </c>
       <c r="D16" t="n">
-        <v>3165.224347577258</v>
+        <v>1935.08</v>
       </c>
       <c r="E16" t="n">
         <v>2237</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>4,008</t>
+          <t>4,384</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>176.6075955371356</v>
+        <v>31.32559101998379</v>
       </c>
     </row>
     <row r="17">
@@ -856,18 +856,18 @@
         <v>9</v>
       </c>
       <c r="D17" t="n">
-        <v>12176.2575</v>
+        <v>13696.69</v>
       </c>
       <c r="E17" t="n">
         <v>17319</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>4,008</t>
+          <t>4,384</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>176.6075955371356</v>
+        <v>31.32559101998379</v>
       </c>
     </row>
     <row r="18">
@@ -881,18 +881,18 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>1369.495833333333</v>
+        <v>50.92</v>
       </c>
       <c r="E18" t="n">
         <v>52</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>4,008</t>
+          <t>4,384</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>176.6075955371356</v>
+        <v>31.32559101998379</v>
       </c>
     </row>
     <row r="19">
@@ -906,18 +906,18 @@
         <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>5135.702351641414</v>
+        <v>6485.37</v>
       </c>
       <c r="E19" t="n">
         <v>4498</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>4,008</t>
+          <t>4,384</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>176.6075955371356</v>
+        <v>31.32559101998379</v>
       </c>
     </row>
     <row r="20">
@@ -931,18 +931,18 @@
         <v>2</v>
       </c>
       <c r="D20" t="n">
-        <v>9339.517997474748</v>
+        <v>10717.04</v>
       </c>
       <c r="E20" t="n">
         <v>14113</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>4,008</t>
+          <t>4,384</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>176.6075955371356</v>
+        <v>31.32559101998379</v>
       </c>
     </row>
     <row r="21">
@@ -956,18 +956,18 @@
         <v>3</v>
       </c>
       <c r="D21" t="n">
-        <v>2704.298625235273</v>
+        <v>120.05</v>
       </c>
       <c r="E21" t="n">
         <v>83</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>4,008</t>
+          <t>4,384</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>176.6075955371356</v>
+        <v>31.32559101998379</v>
       </c>
     </row>
     <row r="22">
@@ -981,18 +981,18 @@
         <v>4</v>
       </c>
       <c r="D22" t="n">
-        <v>2864.751056854091</v>
+        <v>3344.99</v>
       </c>
       <c r="E22" t="n">
         <v>6183</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>4,008</t>
+          <t>4,384</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>176.6075955371356</v>
+        <v>31.32559101998379</v>
       </c>
     </row>
     <row r="23">
@@ -1006,18 +1006,18 @@
         <v>5</v>
       </c>
       <c r="D23" t="n">
-        <v>2214.938532340411</v>
+        <v>302.73</v>
       </c>
       <c r="E23" t="n">
         <v>300</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>4,008</t>
+          <t>4,384</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>176.6075955371356</v>
+        <v>31.32559101998379</v>
       </c>
     </row>
     <row r="24">
@@ -1031,18 +1031,18 @@
         <v>6</v>
       </c>
       <c r="D24" t="n">
-        <v>1743.969241259964</v>
+        <v>31.83</v>
       </c>
       <c r="E24" t="n">
         <v>1</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>4,008</t>
+          <t>4,384</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>176.6075955371356</v>
+        <v>31.32559101998379</v>
       </c>
     </row>
     <row r="25">
@@ -1056,18 +1056,18 @@
         <v>7</v>
       </c>
       <c r="D25" t="n">
-        <v>1969.099141900989</v>
+        <v>10.63</v>
       </c>
       <c r="E25" t="n">
         <v>14</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>4,008</t>
+          <t>4,384</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>176.6075955371356</v>
+        <v>31.32559101998379</v>
       </c>
     </row>
     <row r="26">
@@ -1081,18 +1081,18 @@
         <v>8</v>
       </c>
       <c r="D26" t="n">
-        <v>3269.412234031082</v>
+        <v>2795.83</v>
       </c>
       <c r="E26" t="n">
         <v>3277</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>4,008</t>
+          <t>4,384</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>176.6075955371356</v>
+        <v>31.32559101998379</v>
       </c>
     </row>
     <row r="27">
@@ -1106,18 +1106,18 @@
         <v>9</v>
       </c>
       <c r="D27" t="n">
-        <v>22244.1225</v>
+        <v>27552.69</v>
       </c>
       <c r="E27" t="n">
         <v>32447</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>4,008</t>
+          <t>4,384</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>176.6075955371356</v>
+        <v>31.32559101998379</v>
       </c>
     </row>
     <row r="28">
@@ -1131,18 +1131,18 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>731.0533333333333</v>
+        <v>51.67</v>
       </c>
       <c r="E28" t="n">
         <v>54</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>4,008</t>
+          <t>4,384</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>176.6075955371356</v>
+        <v>31.32559101998379</v>
       </c>
     </row>
     <row r="29">
@@ -1156,18 +1156,18 @@
         <v>1</v>
       </c>
       <c r="D29" t="n">
-        <v>3197.519002705627</v>
+        <v>3846.26</v>
       </c>
       <c r="E29" t="n">
         <v>2610</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>4,008</t>
+          <t>4,384</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>176.6075955371356</v>
+        <v>31.32559101998379</v>
       </c>
     </row>
     <row r="30">
@@ -1181,18 +1181,18 @@
         <v>2</v>
       </c>
       <c r="D30" t="n">
-        <v>5407.683376217534</v>
+        <v>6628.45</v>
       </c>
       <c r="E30" t="n">
         <v>7539</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>4,008</t>
+          <t>4,384</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>176.6075955371356</v>
+        <v>31.32559101998379</v>
       </c>
     </row>
     <row r="31">
@@ -1206,18 +1206,18 @@
         <v>3</v>
       </c>
       <c r="D31" t="n">
-        <v>1990.620182278923</v>
+        <v>124.38</v>
       </c>
       <c r="E31" t="n">
         <v>33</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>4,008</t>
+          <t>4,384</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>176.6075955371356</v>
+        <v>31.32559101998379</v>
       </c>
     </row>
     <row r="32">
@@ -1231,18 +1231,18 @@
         <v>4</v>
       </c>
       <c r="D32" t="n">
-        <v>2364.547066049757</v>
+        <v>2282.01</v>
       </c>
       <c r="E32" t="n">
         <v>1230</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>4,008</t>
+          <t>4,384</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>176.6075955371356</v>
+        <v>31.32559101998379</v>
       </c>
     </row>
     <row r="33">
@@ -1256,18 +1256,18 @@
         <v>5</v>
       </c>
       <c r="D33" t="n">
-        <v>2776.328608590551</v>
+        <v>1434.12</v>
       </c>
       <c r="E33" t="n">
         <v>2535</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>4,008</t>
+          <t>4,384</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>176.6075955371356</v>
+        <v>31.32559101998379</v>
       </c>
     </row>
     <row r="34">
@@ -1281,18 +1281,18 @@
         <v>6</v>
       </c>
       <c r="D34" t="n">
-        <v>2383.861103224388</v>
+        <v>485.31</v>
       </c>
       <c r="E34" t="n">
         <v>1</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>4,008</t>
+          <t>4,384</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>176.6075955371356</v>
+        <v>31.32559101998379</v>
       </c>
     </row>
     <row r="35">
@@ -1306,18 +1306,18 @@
         <v>7</v>
       </c>
       <c r="D35" t="n">
-        <v>2331.575858032081</v>
+        <v>423.99</v>
       </c>
       <c r="E35" t="n">
         <v>13</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>4,008</t>
+          <t>4,384</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>176.6075955371356</v>
+        <v>31.32559101998379</v>
       </c>
     </row>
     <row r="36">
@@ -1331,18 +1331,18 @@
         <v>8</v>
       </c>
       <c r="D36" t="n">
-        <v>2894.976894516431</v>
+        <v>2025.04</v>
       </c>
       <c r="E36" t="n">
         <v>1734</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>4,008</t>
+          <t>4,384</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>176.6075955371356</v>
+        <v>31.32559101998379</v>
       </c>
     </row>
     <row r="37">
@@ -1356,18 +1356,18 @@
         <v>9</v>
       </c>
       <c r="D37" t="n">
-        <v>15079.4975</v>
+        <v>21751.27</v>
       </c>
       <c r="E37" t="n">
         <v>9422</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>4,008</t>
+          <t>4,384</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>176.6075955371356</v>
+        <v>31.32559101998379</v>
       </c>
     </row>
     <row r="38">
@@ -1381,18 +1381,18 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>772.00109375</v>
+        <v>102.66</v>
       </c>
       <c r="E38" t="n">
         <v>14</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>4,008</t>
+          <t>4,384</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>176.6075955371356</v>
+        <v>31.32559101998379</v>
       </c>
     </row>
     <row r="39">
@@ -1406,18 +1406,18 @@
         <v>1</v>
       </c>
       <c r="D39" t="n">
-        <v>3204.009345508657</v>
+        <v>3546.93</v>
       </c>
       <c r="E39" t="n">
         <v>1226</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>4,008</t>
+          <t>4,384</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>176.6075955371356</v>
+        <v>31.32559101998379</v>
       </c>
     </row>
     <row r="40">
@@ -1431,18 +1431,18 @@
         <v>2</v>
       </c>
       <c r="D40" t="n">
-        <v>5035.130507711038</v>
+        <v>5783.25</v>
       </c>
       <c r="E40" t="n">
         <v>1148</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>4,008</t>
+          <t>4,384</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>176.6075955371356</v>
+        <v>31.32559101998379</v>
       </c>
     </row>
     <row r="41">
@@ -1456,18 +1456,18 @@
         <v>3</v>
       </c>
       <c r="D41" t="n">
-        <v>2084.954759704969</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="E41" t="n">
         <v>61</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>4,008</t>
+          <t>4,384</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>176.6075955371356</v>
+        <v>31.32559101998379</v>
       </c>
     </row>
     <row r="42">
@@ -1481,18 +1481,18 @@
         <v>4</v>
       </c>
       <c r="D42" t="n">
-        <v>3027.369238736355</v>
+        <v>4542.12</v>
       </c>
       <c r="E42" t="n">
         <v>114</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>4,008</t>
+          <t>4,384</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>176.6075955371356</v>
+        <v>31.32559101998379</v>
       </c>
     </row>
     <row r="43">
@@ -1506,18 +1506,18 @@
         <v>5</v>
       </c>
       <c r="D43" t="n">
-        <v>11083.05201849826</v>
+        <v>18386.68</v>
       </c>
       <c r="E43" t="n">
         <v>2025</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>4,008</t>
+          <t>4,384</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>176.6075955371356</v>
+        <v>31.32559101998379</v>
       </c>
     </row>
     <row r="44">
@@ -1531,18 +1531,18 @@
         <v>8</v>
       </c>
       <c r="D44" t="n">
-        <v>4186.696189764492</v>
+        <v>4942.78</v>
       </c>
       <c r="E44" t="n">
         <v>224</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>4,008</t>
+          <t>4,384</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>176.6075955371356</v>
+        <v>31.32559101998379</v>
       </c>
     </row>
     <row r="45">
@@ -1556,18 +1556,18 @@
         <v>9</v>
       </c>
       <c r="D45" t="n">
-        <v>11140.23875</v>
+        <v>11924.76</v>
       </c>
       <c r="E45" t="n">
         <v>4376</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>4,008</t>
+          <t>4,384</t>
         </is>
       </c>
       <c r="G45" t="n">
-        <v>176.6075955371356</v>
+        <v>31.32559101998379</v>
       </c>
     </row>
     <row r="46">
@@ -1581,18 +1581,18 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>739.6146279761905</v>
+        <v>43.01</v>
       </c>
       <c r="E46" t="n">
         <v>8</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>4,008</t>
+          <t>4,384</t>
         </is>
       </c>
       <c r="G46" t="n">
-        <v>176.6075955371356</v>
+        <v>31.32559101998379</v>
       </c>
     </row>
     <row r="47">
@@ -1606,18 +1606,18 @@
         <v>1</v>
       </c>
       <c r="D47" t="n">
-        <v>3142.735052353896</v>
+        <v>3701.94</v>
       </c>
       <c r="E47" t="n">
         <v>781</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>4,008</t>
+          <t>4,384</t>
         </is>
       </c>
       <c r="G47" t="n">
-        <v>176.6075955371356</v>
+        <v>31.32559101998379</v>
       </c>
     </row>
     <row r="48">
@@ -1631,18 +1631,18 @@
         <v>2</v>
       </c>
       <c r="D48" t="n">
-        <v>4939.316119318181</v>
+        <v>5962.34</v>
       </c>
       <c r="E48" t="n">
         <v>326</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>4,008</t>
+          <t>4,384</t>
         </is>
       </c>
       <c r="G48" t="n">
-        <v>176.6075955371356</v>
+        <v>31.32559101998379</v>
       </c>
     </row>
     <row r="49">
@@ -1656,18 +1656,18 @@
         <v>3</v>
       </c>
       <c r="D49" t="n">
-        <v>1741.975353951002</v>
+        <v>24.81</v>
       </c>
       <c r="E49" t="n">
         <v>5</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>4,008</t>
+          <t>4,384</t>
         </is>
       </c>
       <c r="G49" t="n">
-        <v>176.6075955371356</v>
+        <v>31.32559101998379</v>
       </c>
     </row>
     <row r="50">
@@ -1681,18 +1681,18 @@
         <v>4</v>
       </c>
       <c r="D50" t="n">
-        <v>1991.837997619833</v>
+        <v>937.0700000000001</v>
       </c>
       <c r="E50" t="n">
         <v>37</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>4,008</t>
+          <t>4,384</t>
         </is>
       </c>
       <c r="G50" t="n">
-        <v>176.6075955371356</v>
+        <v>31.32559101998379</v>
       </c>
     </row>
     <row r="51">
@@ -1706,18 +1706,18 @@
         <v>5</v>
       </c>
       <c r="D51" t="n">
-        <v>3106.107963393641</v>
+        <v>5204.08</v>
       </c>
       <c r="E51" t="n">
         <v>4</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>4,008</t>
+          <t>4,384</t>
         </is>
       </c>
       <c r="G51" t="n">
-        <v>176.6075955371356</v>
+        <v>31.32559101998379</v>
       </c>
     </row>
     <row r="52">
@@ -1731,18 +1731,18 @@
         <v>8</v>
       </c>
       <c r="D52" t="n">
-        <v>2555.802383216875</v>
+        <v>1672.24</v>
       </c>
       <c r="E52" t="n">
         <v>48</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>4,008</t>
+          <t>4,384</t>
         </is>
       </c>
       <c r="G52" t="n">
-        <v>176.6075955371356</v>
+        <v>31.32559101998379</v>
       </c>
     </row>
     <row r="53">
@@ -1756,18 +1756,18 @@
         <v>9</v>
       </c>
       <c r="D53" t="n">
-        <v>11094.54083333333</v>
+        <v>11889.24</v>
       </c>
       <c r="E53" t="n">
         <v>1007</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>4,008</t>
+          <t>4,384</t>
         </is>
       </c>
       <c r="G53" t="n">
-        <v>176.6075955371356</v>
+        <v>31.32559101998379</v>
       </c>
     </row>
     <row r="54">
@@ -1781,18 +1781,18 @@
         <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>714.1615386904762</v>
+        <v>37.88</v>
       </c>
       <c r="E54" t="n">
         <v>5</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>4,008</t>
+          <t>4,384</t>
         </is>
       </c>
       <c r="G54" t="n">
-        <v>176.6075955371356</v>
+        <v>31.32559101998379</v>
       </c>
     </row>
     <row r="55">
@@ -1806,18 +1806,18 @@
         <v>1</v>
       </c>
       <c r="D55" t="n">
-        <v>3210.920162472944</v>
+        <v>3573.52</v>
       </c>
       <c r="E55" t="n">
         <v>737</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>4,008</t>
+          <t>4,384</t>
         </is>
       </c>
       <c r="G55" t="n">
-        <v>176.6075955371356</v>
+        <v>31.32559101998379</v>
       </c>
     </row>
     <row r="56">
@@ -1831,18 +1831,18 @@
         <v>2</v>
       </c>
       <c r="D56" t="n">
-        <v>5245.138117334056</v>
+        <v>6283.77</v>
       </c>
       <c r="E56" t="n">
         <v>384</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>4,008</t>
+          <t>4,384</t>
         </is>
       </c>
       <c r="G56" t="n">
-        <v>176.6075955371356</v>
+        <v>31.32559101998379</v>
       </c>
     </row>
     <row r="57">
@@ -1856,18 +1856,18 @@
         <v>3</v>
       </c>
       <c r="D57" t="n">
-        <v>1585.887835407649</v>
+        <v>11.4</v>
       </c>
       <c r="E57" t="n">
         <v>9</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>4,008</t>
+          <t>4,384</t>
         </is>
       </c>
       <c r="G57" t="n">
-        <v>176.6075955371356</v>
+        <v>31.32559101998379</v>
       </c>
     </row>
     <row r="58">
@@ -1881,18 +1881,18 @@
         <v>4</v>
       </c>
       <c r="D58" t="n">
-        <v>1807.349018759021</v>
+        <v>1078.8</v>
       </c>
       <c r="E58" t="n">
         <v>30</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>4,008</t>
+          <t>4,384</t>
         </is>
       </c>
       <c r="G58" t="n">
-        <v>176.6075955371356</v>
+        <v>31.32559101998379</v>
       </c>
     </row>
     <row r="59">
@@ -1906,18 +1906,18 @@
         <v>5</v>
       </c>
       <c r="D59" t="n">
-        <v>1405.38919295635</v>
+        <v>60.42</v>
       </c>
       <c r="E59" t="n">
         <v>1</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>4,008</t>
+          <t>4,384</t>
         </is>
       </c>
       <c r="G59" t="n">
-        <v>176.6075955371356</v>
+        <v>31.32559101998379</v>
       </c>
     </row>
     <row r="60">
@@ -1931,18 +1931,18 @@
         <v>8</v>
       </c>
       <c r="D60" t="n">
-        <v>2423.879275974026</v>
+        <v>1644.01</v>
       </c>
       <c r="E60" t="n">
         <v>36</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>4,008</t>
+          <t>4,384</t>
         </is>
       </c>
       <c r="G60" t="n">
-        <v>176.6075955371356</v>
+        <v>31.32559101998379</v>
       </c>
     </row>
     <row r="61">
@@ -1956,18 +1956,18 @@
         <v>9</v>
       </c>
       <c r="D61" t="n">
-        <v>11108.05</v>
+        <v>11995.53</v>
       </c>
       <c r="E61" t="n">
         <v>1018</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>4,008</t>
+          <t>4,384</t>
         </is>
       </c>
       <c r="G61" t="n">
-        <v>176.6075955371356</v>
+        <v>31.32559101998379</v>
       </c>
     </row>
     <row r="62">
@@ -1981,18 +1981,18 @@
         <v>0</v>
       </c>
       <c r="D62" t="n">
-        <v>788.4009910714286</v>
+        <v>41.48</v>
       </c>
       <c r="E62" t="n">
         <v>9</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>4,008</t>
+          <t>4,384</t>
         </is>
       </c>
       <c r="G62" t="n">
-        <v>176.6075955371356</v>
+        <v>31.32559101998379</v>
       </c>
     </row>
     <row r="63">
@@ -2006,18 +2006,18 @@
         <v>1</v>
       </c>
       <c r="D63" t="n">
-        <v>3237.499628742784</v>
+        <v>3602.07</v>
       </c>
       <c r="E63" t="n">
         <v>845</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>4,008</t>
+          <t>4,384</t>
         </is>
       </c>
       <c r="G63" t="n">
-        <v>176.6075955371356</v>
+        <v>31.32559101998379</v>
       </c>
     </row>
     <row r="64">
@@ -2031,18 +2031,18 @@
         <v>2</v>
       </c>
       <c r="D64" t="n">
-        <v>5516.796875270565</v>
+        <v>6526.31</v>
       </c>
       <c r="E64" t="n">
         <v>461</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>4,008</t>
+          <t>4,384</t>
         </is>
       </c>
       <c r="G64" t="n">
-        <v>176.6075955371356</v>
+        <v>31.32559101998379</v>
       </c>
     </row>
     <row r="65">
@@ -2056,18 +2056,18 @@
         <v>3</v>
       </c>
       <c r="D65" t="n">
-        <v>1557.046926216145</v>
+        <v>9.85</v>
       </c>
       <c r="E65" t="n">
         <v>12</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>4,008</t>
+          <t>4,384</t>
         </is>
       </c>
       <c r="G65" t="n">
-        <v>176.6075955371356</v>
+        <v>31.32559101998379</v>
       </c>
     </row>
     <row r="66">
@@ -2081,18 +2081,18 @@
         <v>4</v>
       </c>
       <c r="D66" t="n">
-        <v>1758.996068441975</v>
+        <v>1080.47</v>
       </c>
       <c r="E66" t="n">
         <v>11</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>4,008</t>
+          <t>4,384</t>
         </is>
       </c>
       <c r="G66" t="n">
-        <v>176.6075955371356</v>
+        <v>31.32559101998379</v>
       </c>
     </row>
     <row r="67">
@@ -2106,18 +2106,18 @@
         <v>8</v>
       </c>
       <c r="D67" t="n">
-        <v>2307.17250743007</v>
+        <v>1650.67</v>
       </c>
       <c r="E67" t="n">
         <v>126</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>4,008</t>
+          <t>4,384</t>
         </is>
       </c>
       <c r="G67" t="n">
-        <v>176.6075955371356</v>
+        <v>31.32559101998379</v>
       </c>
     </row>
     <row r="68">
@@ -2131,18 +2131,18 @@
         <v>9</v>
       </c>
       <c r="D68" t="n">
-        <v>11460.75825</v>
+        <v>12324.12</v>
       </c>
       <c r="E68" t="n">
         <v>915</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>4,008</t>
+          <t>4,384</t>
         </is>
       </c>
       <c r="G68" t="n">
-        <v>176.6075955371356</v>
+        <v>31.32559101998379</v>
       </c>
     </row>
     <row r="69">
@@ -2156,18 +2156,18 @@
         <v>0</v>
       </c>
       <c r="D69" t="n">
-        <v>853.4270833333333</v>
+        <v>45.88</v>
       </c>
       <c r="E69" t="n">
         <v>9</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>4,008</t>
+          <t>4,384</t>
         </is>
       </c>
       <c r="G69" t="n">
-        <v>176.6075955371356</v>
+        <v>31.32559101998379</v>
       </c>
     </row>
     <row r="70">
@@ -2181,18 +2181,18 @@
         <v>1</v>
       </c>
       <c r="D70" t="n">
-        <v>3230.810478445165</v>
+        <v>3595.53</v>
       </c>
       <c r="E70" t="n">
         <v>721</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>4,008</t>
+          <t>4,384</t>
         </is>
       </c>
       <c r="G70" t="n">
-        <v>176.6075955371356</v>
+        <v>31.32559101998379</v>
       </c>
     </row>
     <row r="71">
@@ -2206,18 +2206,18 @@
         <v>2</v>
       </c>
       <c r="D71" t="n">
-        <v>5661.461964556278</v>
+        <v>6669.51</v>
       </c>
       <c r="E71" t="n">
         <v>482</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>4,008</t>
+          <t>4,384</t>
         </is>
       </c>
       <c r="G71" t="n">
-        <v>176.6075955371356</v>
+        <v>31.32559101998379</v>
       </c>
     </row>
     <row r="72">
@@ -2231,18 +2231,18 @@
         <v>3</v>
       </c>
       <c r="D72" t="n">
-        <v>1642.445270833334</v>
+        <v>16.48</v>
       </c>
       <c r="E72" t="n">
         <v>15</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>4,008</t>
+          <t>4,384</t>
         </is>
       </c>
       <c r="G72" t="n">
-        <v>176.6075955371356</v>
+        <v>31.32559101998379</v>
       </c>
     </row>
     <row r="73">
@@ -2256,18 +2256,18 @@
         <v>4</v>
       </c>
       <c r="D73" t="n">
-        <v>1740.397955402237</v>
+        <v>964.34</v>
       </c>
       <c r="E73" t="n">
         <v>51</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>4,008</t>
+          <t>4,384</t>
         </is>
       </c>
       <c r="G73" t="n">
-        <v>176.6075955371356</v>
+        <v>31.32559101998379</v>
       </c>
     </row>
     <row r="74">
@@ -2281,18 +2281,18 @@
         <v>5</v>
       </c>
       <c r="D74" t="n">
-        <v>1187.988169642857</v>
+        <v>17.12</v>
       </c>
       <c r="E74" t="n">
         <v>2</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>4,008</t>
+          <t>4,384</t>
         </is>
       </c>
       <c r="G74" t="n">
-        <v>176.6075955371356</v>
+        <v>31.32559101998379</v>
       </c>
     </row>
     <row r="75">
@@ -2306,18 +2306,18 @@
         <v>8</v>
       </c>
       <c r="D75" t="n">
-        <v>2348.528919642857</v>
+        <v>1700.53</v>
       </c>
       <c r="E75" t="n">
         <v>129</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>4,008</t>
+          <t>4,384</t>
         </is>
       </c>
       <c r="G75" t="n">
-        <v>176.6075955371356</v>
+        <v>31.32559101998379</v>
       </c>
     </row>
     <row r="76">
@@ -2331,18 +2331,18 @@
         <v>9</v>
       </c>
       <c r="D76" t="n">
-        <v>12042.92125</v>
+        <v>12930.73</v>
       </c>
       <c r="E76" t="n">
         <v>891</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>4,008</t>
+          <t>4,384</t>
         </is>
       </c>
       <c r="G76" t="n">
-        <v>176.6075955371356</v>
+        <v>31.32559101998379</v>
       </c>
     </row>
     <row r="77">
@@ -2356,18 +2356,18 @@
         <v>0</v>
       </c>
       <c r="D77" t="n">
-        <v>835.2491666666667</v>
+        <v>43.38</v>
       </c>
       <c r="E77" t="n">
         <v>16</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>4,008</t>
+          <t>4,384</t>
         </is>
       </c>
       <c r="G77" t="n">
-        <v>176.6075955371356</v>
+        <v>31.32559101998379</v>
       </c>
     </row>
     <row r="78">
@@ -2381,18 +2381,18 @@
         <v>1</v>
       </c>
       <c r="D78" t="n">
-        <v>3068.890732638889</v>
+        <v>3573.04</v>
       </c>
       <c r="E78" t="n">
         <v>821</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>4,008</t>
+          <t>4,384</t>
         </is>
       </c>
       <c r="G78" t="n">
-        <v>176.6075955371356</v>
+        <v>31.32559101998379</v>
       </c>
     </row>
     <row r="79">
@@ -2406,18 +2406,18 @@
         <v>2</v>
       </c>
       <c r="D79" t="n">
-        <v>5675.217052083333</v>
+        <v>6792.44</v>
       </c>
       <c r="E79" t="n">
         <v>343</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>4,008</t>
+          <t>4,384</t>
         </is>
       </c>
       <c r="G79" t="n">
-        <v>176.6075955371356</v>
+        <v>31.32559101998379</v>
       </c>
     </row>
     <row r="80">
@@ -2431,18 +2431,18 @@
         <v>3</v>
       </c>
       <c r="D80" t="n">
-        <v>1679.188422393579</v>
+        <v>33.12</v>
       </c>
       <c r="E80" t="n">
         <v>15</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>4,008</t>
+          <t>4,384</t>
         </is>
       </c>
       <c r="G80" t="n">
-        <v>176.6075955371356</v>
+        <v>31.32559101998379</v>
       </c>
     </row>
     <row r="81">
@@ -2456,18 +2456,18 @@
         <v>4</v>
       </c>
       <c r="D81" t="n">
-        <v>1703.454403048341</v>
+        <v>1077</v>
       </c>
       <c r="E81" t="n">
         <v>539</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>4,008</t>
+          <t>4,384</t>
         </is>
       </c>
       <c r="G81" t="n">
-        <v>176.6075955371356</v>
+        <v>31.32559101998379</v>
       </c>
     </row>
     <row r="82">
@@ -2481,18 +2481,18 @@
         <v>5</v>
       </c>
       <c r="D82" t="n">
-        <v>1233.655459325397</v>
+        <v>60.53</v>
       </c>
       <c r="E82" t="n">
         <v>1</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>4,008</t>
+          <t>4,384</t>
         </is>
       </c>
       <c r="G82" t="n">
-        <v>176.6075955371356</v>
+        <v>31.32559101998379</v>
       </c>
     </row>
     <row r="83">
@@ -2506,18 +2506,18 @@
         <v>7</v>
       </c>
       <c r="D83" t="n">
-        <v>1768.604963789682</v>
+        <v>30.08</v>
       </c>
       <c r="E83" t="n">
         <v>1</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>4,008</t>
+          <t>4,384</t>
         </is>
       </c>
       <c r="G83" t="n">
-        <v>176.6075955371356</v>
+        <v>31.32559101998379</v>
       </c>
     </row>
     <row r="84">
@@ -2531,18 +2531,18 @@
         <v>8</v>
       </c>
       <c r="D84" t="n">
-        <v>2447.582598214286</v>
+        <v>1696.06</v>
       </c>
       <c r="E84" t="n">
         <v>59</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>4,008</t>
+          <t>4,384</t>
         </is>
       </c>
       <c r="G84" t="n">
-        <v>176.6075955371356</v>
+        <v>31.32559101998379</v>
       </c>
     </row>
     <row r="85">
@@ -2556,18 +2556,18 @@
         <v>9</v>
       </c>
       <c r="D85" t="n">
-        <v>12247.8175</v>
+        <v>13202.19</v>
       </c>
       <c r="E85" t="n">
         <v>1053</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>4,008</t>
+          <t>4,384</t>
         </is>
       </c>
       <c r="G85" t="n">
-        <v>176.6075955371356</v>
+        <v>31.32559101998379</v>
       </c>
     </row>
   </sheetData>
